--- a/Assets/Resources/Excels/WaveSheets.xlsx
+++ b/Assets/Resources/Excels/WaveSheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\sparta_team\3D_TEAM12\Assets\Resources\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F360FF-D102-4599-B7A9-6AB9C37A9265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0677A6D1-45FB-4504-9F5E-F8257DC5CAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53160" yWindow="2535" windowWidth="20520" windowHeight="15285" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42465" yWindow="3300" windowWidth="29640" windowHeight="15045" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WaveList" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="30">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,41 @@
   </si>
   <si>
     <t>SequentialPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wave 6</t>
+  </si>
+  <si>
+    <t>Wave 7</t>
+  </si>
+  <si>
+    <t>Wave 8</t>
+  </si>
+  <si>
+    <t>Wave 9</t>
+  </si>
+  <si>
+    <t>Wave 10</t>
+  </si>
+  <si>
+    <t>Wave 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wave 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wave 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wave 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wave 10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -524,6 +559,76 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>100600</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>100700</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>100800</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>100900</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>101000</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -532,10 +637,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4182A59D-C3A8-494B-938A-0FD2ABBEAB86}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:A30"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1253,6 +1358,941 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>100600</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>10001</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>100600</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>10003</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>100600</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>10002</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>100600</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>10005</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>100600</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>10004</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>100600</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>10006</v>
+      </c>
+      <c r="F36">
+        <v>10</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>100600</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>10002</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>100600</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>10005</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>100700</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>10001</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>100700</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>10003</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>100700</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>10002</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>100700</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>10005</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>100700</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>10004</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+      <c r="G43">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>100700</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>10006</v>
+      </c>
+      <c r="F44">
+        <v>10</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>100700</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>10002</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>100700</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>10005</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>100800</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>10001</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>100800</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>10003</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>100800</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>10002</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>100800</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>10005</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>100800</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>10004</v>
+      </c>
+      <c r="F51">
+        <v>10</v>
+      </c>
+      <c r="G51">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>100800</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>10006</v>
+      </c>
+      <c r="F52">
+        <v>10</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>100800</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>10002</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>100800</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>10005</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>100900</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>10001</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>100900</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>10003</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>100900</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>10002</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>100900</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <v>10005</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>100900</v>
+      </c>
+      <c r="B59">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>10004</v>
+      </c>
+      <c r="F59">
+        <v>10</v>
+      </c>
+      <c r="G59">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>100900</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>10006</v>
+      </c>
+      <c r="F60">
+        <v>10</v>
+      </c>
+      <c r="G60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>100900</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>10002</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>100900</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <v>10005</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>101000</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>10006</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>101000</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>10006</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>101000</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>10006</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>101000</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <v>10006</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>101000</v>
+      </c>
+      <c r="B67">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>10006</v>
+      </c>
+      <c r="F67">
+        <v>10</v>
+      </c>
+      <c r="G67">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>101000</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>10006</v>
+      </c>
+      <c r="F68">
+        <v>10</v>
+      </c>
+      <c r="G68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>101000</v>
+      </c>
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>10006</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>101000</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70">
+        <v>10006</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resources/Excels/WaveSheets.xlsx
+++ b/Assets/Resources/Excels/WaveSheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\sparta_team\3D_TEAM12\Assets\Resources\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0677A6D1-45FB-4504-9F5E-F8257DC5CAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6711EDC9-3130-4015-9B49-A2707611FC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42465" yWindow="3300" windowWidth="29640" windowHeight="15045" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38685" yWindow="3195" windowWidth="29640" windowHeight="15045" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WaveList" sheetId="1" r:id="rId1"/>
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4182A59D-C3A8-494B-938A-0FD2ABBEAB86}">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="J67" sqref="J67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -762,7 +762,7 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>10006</v>
+        <v>10001</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>1</v>
       </c>
       <c r="E64">
-        <v>10006</v>
+        <v>10001</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -2169,7 +2169,7 @@
         <v>2</v>
       </c>
       <c r="E65">
-        <v>10006</v>
+        <v>10001</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2192,7 +2192,7 @@
         <v>3</v>
       </c>
       <c r="E66">
-        <v>10006</v>
+        <v>10001</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2215,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>10006</v>
+        <v>10001</v>
       </c>
       <c r="F67">
         <v>10</v>
@@ -2238,7 +2238,7 @@
         <v>2</v>
       </c>
       <c r="E68">
-        <v>10006</v>
+        <v>10001</v>
       </c>
       <c r="F68">
         <v>10</v>
@@ -2261,7 +2261,7 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>10006</v>
+        <v>10001</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -2278,16 +2278,16 @@
         <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D70">
         <v>3</v>
       </c>
       <c r="E70">
-        <v>10006</v>
+        <v>10008</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70">
         <v>0.5</v>
